--- a/Mifos Automation Excels/Client/3531-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3531-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="85">
   <si>
     <t>#</t>
   </si>
@@ -191,9 +191,6 @@
     <t>waittopageload1</t>
   </si>
   <si>
-    <t>Accrual</t>
-  </si>
-  <si>
     <t>Entry ID</t>
   </si>
   <si>
@@ -233,33 +230,12 @@
     <t>Cash(1)</t>
   </si>
   <si>
-    <t>L212</t>
-  </si>
-  <si>
-    <t>$ 785.8</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
-    <t>$ 101.92</t>
-  </si>
-  <si>
-    <t>Penalties Receivable(5)</t>
-  </si>
-  <si>
-    <t>$ 1.02</t>
-  </si>
-  <si>
-    <t>$ 888.74</t>
-  </si>
-  <si>
     <t>system</t>
   </si>
   <si>
-    <t>$ 101.92</t>
-  </si>
-  <si>
     <t>INCOME</t>
   </si>
   <si>
@@ -269,18 +245,9 @@
     <t>Fees Receivable(4)</t>
   </si>
   <si>
-    <t>$ 100</t>
-  </si>
-  <si>
     <t>Income from fees(8)</t>
   </si>
   <si>
-    <t>$ 84.82</t>
-  </si>
-  <si>
-    <t>$ 93.91</t>
-  </si>
-  <si>
     <t>3531-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-PREPAY-PERIODIC</t>
   </si>
   <si>
@@ -288,6 +255,27 @@
   </si>
   <si>
     <t>repaymenttransactionamount</t>
+  </si>
+  <si>
+    <t>L93</t>
+  </si>
+  <si>
+    <t>$ 100</t>
+  </si>
+  <si>
+    <t>L94</t>
+  </si>
+  <si>
+    <t>L95</t>
+  </si>
+  <si>
+    <t>L146</t>
+  </si>
+  <si>
+    <t>$ 45.16</t>
+  </si>
+  <si>
+    <t>$ 10,145.16</t>
   </si>
 </sst>
 </file>
@@ -398,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -439,9 +427,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -777,7 +762,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +815,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B9" s="6">
         <v>42018</v>
@@ -902,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -938,9 +923,9 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="25">
+        <v>77</v>
+      </c>
+      <c r="B4" s="24">
         <v>10145.16</v>
       </c>
     </row>
@@ -962,7 +947,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,10 +1021,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B4" s="11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4" s="11">
         <v>0</v>
@@ -1084,7 +1069,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,8 +1084,7 @@
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -1208,16 +1192,16 @@
         <v>45.16</v>
       </c>
       <c r="I3" s="11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" s="11">
         <v>0</v>
       </c>
       <c r="K3" s="14">
-        <v>10045.16</v>
+        <v>10145.16</v>
       </c>
       <c r="L3" s="14">
-        <v>10045.16</v>
+        <v>10145.16</v>
       </c>
       <c r="M3" s="11">
         <v>0</v>
@@ -1225,7 +1209,7 @@
       <c r="N3" s="11">
         <v>0</v>
       </c>
-      <c r="P3" s="11">
+      <c r="O3" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1237,19 +1221,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
@@ -1258,7 +1242,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1290,59 +1274,61 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>2662</v>
+        <v>146</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="12">
-        <v>42095</v>
+        <v>42019</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="11">
+        <v>53</v>
+      </c>
+      <c r="E2" s="14">
+        <v>10145.16</v>
+      </c>
+      <c r="F2" s="13">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="11">
+        <v>45.16</v>
+      </c>
+      <c r="H2" s="11">
         <v>100</v>
       </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11">
-        <v>100</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
       <c r="I2" s="11">
         <v>0</v>
       </c>
       <c r="J2" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>2661</v>
+        <v>92</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="12">
-        <v>42064</v>
+        <v>42005</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="11">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="13">
+        <v>10000</v>
       </c>
       <c r="F3" s="11">
         <v>0</v>
       </c>
       <c r="G3" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H3" s="11">
         <v>0</v>
@@ -1350,105 +1336,11 @@
       <c r="I3" s="11">
         <v>0</v>
       </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>2660</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="11">
-        <v>200</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>100</v>
-      </c>
-      <c r="H4" s="11">
-        <v>100</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>2663</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="12">
-        <v>42019</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="14">
-        <v>10145.16</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="J3" s="13">
         <v>10000</v>
       </c>
-      <c r="G5" s="11">
-        <v>45.16</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>2659</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="12">
-        <v>42005</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="13">
-        <v>10000</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>10000</v>
-      </c>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1471,7 +1363,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
@@ -1480,22 +1372,22 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1509,19 +1401,19 @@
         <v>42005</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="I2" s="19"/>
     </row>
@@ -1536,20 +1428,20 @@
         <v>42005</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1562,18 +1454,25 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
@@ -1582,131 +1481,131 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
-        <v>328</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="21">
-        <v>42036</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="A2" s="19">
+        <v>288</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="20">
+        <v>42019</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>289</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="20">
+        <v>42019</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>290</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="20">
+        <v>42019</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>329</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="21">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="21" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>291</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="20">
+        <v>42019</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
-        <v>330</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="21">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
-        <v>331</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="21">
-        <v>42036</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="21"/>
+      <c r="G5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1715,287 +1614,494 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>58</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="24">
+      <c r="A2" s="11">
+        <v>172</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="12">
         <v>42036</v>
       </c>
-      <c r="D2" s="23">
-        <v>1</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="D2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>173</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>174</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="12">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>175</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="12">
+        <v>42036</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>280</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="12">
+        <v>42036</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="23" t="s">
+      <c r="G6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>281</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="12">
+        <v>42036</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
-        <v>59</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="24">
+      <c r="E7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>282</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="12">
         <v>42036</v>
       </c>
-      <c r="D3" s="23">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="D8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="23" t="s">
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>283</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="12">
+        <v>42036</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>176</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="12">
+        <v>42064</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>60</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="24">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="23">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="E11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>177</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="12">
+        <v>42064</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>284</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="12">
+        <v>42064</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="G13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>285</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="12">
+        <v>42064</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>178</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="12">
+        <v>42095</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>61</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="24">
-        <v>42036</v>
-      </c>
-      <c r="D5" s="23">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="E16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>74</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="24">
-        <v>42064</v>
-      </c>
-      <c r="D7" s="23">
-        <v>2</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>179</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="12">
+        <v>42095</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>286</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="12">
+        <v>42095</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="G18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>75</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="24">
-        <v>42064</v>
-      </c>
-      <c r="D8" s="23">
-        <v>2</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="H18" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>76</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>287</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="12">
         <v>42095</v>
       </c>
-      <c r="D10" s="23">
-        <v>3</v>
-      </c>
-      <c r="E10" s="23" t="s">
+      <c r="D19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>77</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="24">
-        <v>42095</v>
-      </c>
-      <c r="D11" s="23">
-        <v>3</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="G19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mifos Automation Excels/Client/3531-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3531-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -281,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,6 +451,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -493,7 +501,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,9 +534,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,6 +586,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1066,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,13 +1127,14 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1128,20 +1171,21 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12">
@@ -1167,8 +1211,9 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1198,18 +1243,19 @@
         <v>0</v>
       </c>
       <c r="K3" s="14">
-        <v>10145.16</v>
+        <v>145.16</v>
       </c>
       <c r="L3" s="14">
         <v>10145.16</v>
       </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
+      <c r="M3" s="14"/>
       <c r="N3" s="11">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1223,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
